--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H2">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I2">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J2">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N2">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q2">
-        <v>0.06591475811066666</v>
+        <v>0.06151289360533332</v>
       </c>
       <c r="R2">
-        <v>0.593232822996</v>
+        <v>0.553616042448</v>
       </c>
       <c r="S2">
-        <v>0.02409748058988839</v>
+        <v>0.01510561860786068</v>
       </c>
       <c r="T2">
-        <v>0.02409748058988839</v>
+        <v>0.01510561860786068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H3">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I3">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J3">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.159712</v>
       </c>
       <c r="O3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q3">
-        <v>0.2602143745635556</v>
+        <v>0.5547046815715555</v>
       </c>
       <c r="R3">
-        <v>2.341929371072</v>
+        <v>4.992342134144001</v>
       </c>
       <c r="S3">
-        <v>0.09513060534527699</v>
+        <v>0.1362179027632059</v>
       </c>
       <c r="T3">
-        <v>0.09513060534527701</v>
+        <v>0.1362179027632059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H4">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I4">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J4">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N4">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O4">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P4">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q4">
-        <v>0.5331276715688889</v>
+        <v>1.411972117938222</v>
       </c>
       <c r="R4">
-        <v>4.798149044120001</v>
+        <v>12.707749061444</v>
       </c>
       <c r="S4">
-        <v>0.1949037527528257</v>
+        <v>0.3467356361960969</v>
       </c>
       <c r="T4">
-        <v>0.1949037527528258</v>
+        <v>0.3467356361960968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H5">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I5">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J5">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N5">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O5">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P5">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q5">
-        <v>0.03598267362177777</v>
+        <v>0.01230506594577778</v>
       </c>
       <c r="R5">
-        <v>0.323844062596</v>
+        <v>0.110745593512</v>
       </c>
       <c r="S5">
-        <v>0.01315474415786048</v>
+        <v>0.00302173450519287</v>
       </c>
       <c r="T5">
-        <v>0.01315474415786048</v>
+        <v>0.00302173450519287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H6">
         <v>2.989327</v>
       </c>
       <c r="I6">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J6">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N6">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q6">
-        <v>0.09757362616466667</v>
+        <v>0.04271548994533333</v>
       </c>
       <c r="R6">
-        <v>0.8781626354819999</v>
+        <v>0.384439409508</v>
       </c>
       <c r="S6">
-        <v>0.03567150407561891</v>
+        <v>0.0104895715669303</v>
       </c>
       <c r="T6">
-        <v>0.03567150407561891</v>
+        <v>0.0104895715669303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H7">
         <v>2.989327</v>
       </c>
       <c r="I7">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J7">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.159712</v>
       </c>
       <c r="O7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q7">
-        <v>0.3851953770915555</v>
+        <v>0.3851953770915556</v>
       </c>
       <c r="R7">
-        <v>3.466758393824</v>
+        <v>3.466758393824001</v>
       </c>
       <c r="S7">
-        <v>0.1408218491402823</v>
+        <v>0.09459178580003634</v>
       </c>
       <c r="T7">
-        <v>0.1408218491402823</v>
+        <v>0.09459178580003631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H8">
         <v>2.989327</v>
       </c>
       <c r="I8">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J8">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N8">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O8">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P8">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q8">
-        <v>0.7891889709488888</v>
+        <v>0.9804949380832223</v>
       </c>
       <c r="R8">
-        <v>7.102700738539999</v>
+        <v>8.824454442749001</v>
       </c>
       <c r="S8">
-        <v>0.2885160539808965</v>
+        <v>0.2407785053431299</v>
       </c>
       <c r="T8">
-        <v>0.2885160539808966</v>
+        <v>0.2407785053431298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H9">
         <v>2.989327</v>
       </c>
       <c r="I9">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J9">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N9">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O9">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P9">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q9">
-        <v>0.05326515707577778</v>
+        <v>0.008544825155777779</v>
       </c>
       <c r="R9">
-        <v>0.479386413682</v>
+        <v>0.076903426402</v>
       </c>
       <c r="S9">
-        <v>0.01947296971940491</v>
+        <v>0.002098338450832391</v>
       </c>
       <c r="T9">
-        <v>0.01947296971940491</v>
+        <v>0.002098338450832391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H10">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I10">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J10">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N10">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q10">
-        <v>0.03790929459533333</v>
+        <v>0.01853202216133333</v>
       </c>
       <c r="R10">
-        <v>0.341183651358</v>
+        <v>0.166788199452</v>
       </c>
       <c r="S10">
-        <v>0.01385908887283886</v>
+        <v>0.004550877749266733</v>
       </c>
       <c r="T10">
-        <v>0.01385908887283887</v>
+        <v>0.004550877749266732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H11">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I11">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J11">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.159712</v>
       </c>
       <c r="O11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q11">
-        <v>0.1496560658951111</v>
+        <v>0.1671161743395556</v>
       </c>
       <c r="R11">
-        <v>1.346904593056</v>
+        <v>1.504045569056</v>
       </c>
       <c r="S11">
-        <v>0.05471208946882113</v>
+        <v>0.04103843998909538</v>
       </c>
       <c r="T11">
-        <v>0.05471208946882114</v>
+        <v>0.04103843998909536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H12">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I12">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J12">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N12">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O12">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P12">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q12">
-        <v>0.3066156129177778</v>
+        <v>0.4253855906812222</v>
       </c>
       <c r="R12">
-        <v>2.75954051626</v>
+        <v>3.828470316131</v>
       </c>
       <c r="S12">
-        <v>0.1120942258247809</v>
+        <v>0.1044612294673934</v>
       </c>
       <c r="T12">
-        <v>0.112094225824781</v>
+        <v>0.1044612294673933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H13">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I13">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J13">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N13">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O13">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P13">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q13">
-        <v>0.02069457301755556</v>
+        <v>0.003707153759777778</v>
       </c>
       <c r="R13">
-        <v>0.186251157158</v>
+        <v>0.033364383838</v>
       </c>
       <c r="S13">
-        <v>0.007565636071504795</v>
+        <v>0.0009103595609595034</v>
       </c>
       <c r="T13">
-        <v>0.007565636071504798</v>
+        <v>0.0009103595609595031</v>
       </c>
     </row>
   </sheetData>
